--- a/model_exports/labels/2.0_False_False_4_3.xlsx
+++ b/model_exports/labels/2.0_False_False_4_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C733"/>
+  <dimension ref="A1:C734"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>t-577847446270832640</t>
+          <t>t-1033470726521544704</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -466,7 +466,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>t-624374054338867201</t>
+          <t>t-504042718663036928</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -479,7 +479,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>t-706805466739949568</t>
+          <t>t-504366068648148992</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -492,7 +492,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>t-833214575512150018</t>
+          <t>t-504850389129129984</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -505,7 +505,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>t-887418286014570496</t>
+          <t>t-504998704118394880</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -518,11 +518,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>t-501433457286053889</t>
+          <t>t-508961106849574912</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -531,7 +531,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>t-501490224640573440</t>
+          <t>t-509046359354511360</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -544,11 +544,11 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>t-551476214402387968</t>
+          <t>t-509083951655174144</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -557,33 +557,33 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>t-551489050045988864</t>
+          <t>t-509100730960314368</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>t-583290347863851008</t>
+          <t>t-509131102796414976</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>t-605091889558261760</t>
+          <t>t-509142523403862017</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -596,37 +596,37 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>t-605138894867161088</t>
+          <t>t-509208349511262208</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>t-605351836636311552</t>
+          <t>t-509223264921878528</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>t-641712529677398016</t>
+          <t>t-509224131880300544</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -635,20 +635,20 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>t-738281921046675456</t>
+          <t>t-599446630732079104</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>t-738404067647455232</t>
+          <t>t-688456240490508289</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -661,24 +661,24 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>t-738429326224302080</t>
+          <t>t-759240736864870400</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>t-738429350467543044</t>
+          <t>t-760665387113472001</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -687,33 +687,33 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>t-767329938500308992</t>
+          <t>t-760674522622152704</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>t-784233737512890376</t>
+          <t>t-977115036585021440</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>t-784234780590080001</t>
+          <t>t-501433457286053889</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -726,20 +726,20 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>t-830539164638703616</t>
+          <t>t-501490224640573440</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>t-876890893143298050</t>
+          <t>t-551476214402387968</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -752,11 +752,11 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>t-876899745704415232</t>
+          <t>t-551489050045988864</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -765,33 +765,33 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>t-876909191105048577</t>
+          <t>t-573511311906115584</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>t-876910840670302209</t>
+          <t>t-573530576818434048</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>t-876983597760172032</t>
+          <t>t-585505175835648000</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -804,7 +804,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>t-877064271393370112</t>
+          <t>t-638852256234913792</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -817,7 +817,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>t-877647799629733893</t>
+          <t>t-686267623462408192</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -830,7 +830,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>t-877649383340298240</t>
+          <t>t-719525216439910400</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -843,50 +843,50 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>t-878107705168334848</t>
+          <t>t-719704738913083392</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>t-878263651773407233</t>
+          <t>t-773705145389645824</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>t-878265674975461376</t>
+          <t>t-867771334083923968</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>t-878542338414362624</t>
+          <t>t-889549980888969217</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -895,20 +895,20 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>t-880275227367821312</t>
+          <t>t-889892042435854336</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>t-889549980888969217</t>
+          <t>t-890080777769283584</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -921,59 +921,59 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>t-889892042435854336</t>
+          <t>t-893450286144131072</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>t-890080777769283584</t>
+          <t>t-900539002423562240</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>t-910935192742842370</t>
+          <t>t-900561270843334662</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>t-911026776717103105</t>
+          <t>t-900690069668933632</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>t-950310866641149952</t>
+          <t>t-906729471721570304</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -986,7 +986,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>t-956711426009202688</t>
+          <t>t-937797554313551873</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -999,33 +999,33 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>t-1022084644039258112</t>
+          <t>t-937878737382772737</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>t-1030587514820669441</t>
+          <t>t-938887720075702272</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>t-1030625730407874563</t>
+          <t>t-960921688975331329</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1038,7 +1038,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>t-1031145618503360513</t>
+          <t>t-961028171192852485</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1051,7 +1051,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>t-1031309689848508416</t>
+          <t>t-961254369663602688</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1064,11 +1064,11 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>t-1054831014869123073</t>
+          <t>t-965645492616036357</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1077,11 +1077,11 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>t-1054887299698380800</t>
+          <t>t-965648872474398721</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" t="n">
         <v>1</v>
@@ -1090,7 +1090,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>t-1055927061867585536</t>
+          <t>t-965652051077357569</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1103,7 +1103,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>t-499691919128018944</t>
+          <t>t-966072585061625856</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1116,59 +1116,59 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>t-513019810272137216</t>
+          <t>t-966155045300588545</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>t-922536592429993985</t>
+          <t>t-966356829596016640</t>
         </is>
       </c>
       <c r="B54" t="n">
         <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>t-1028077400779841537</t>
+          <t>t-966362179913093121</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>t-517568253363634176</t>
+          <t>t-966449125788090370</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>t-518546395729379328</t>
+          <t>t-966450069024239616</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1181,7 +1181,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>t-519264703466315776</t>
+          <t>t-966465261950906369</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1194,7 +1194,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>t-582884078073987072</t>
+          <t>t-966698278606856197</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1207,46 +1207,46 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>t-582893069168611328</t>
+          <t>t-966704060270370817</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>t-608562753129840640</t>
+          <t>t-966706278016999424</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>t-637507255093624832</t>
+          <t>t-966769885220163586</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>t-637635998185320448</t>
+          <t>t-973668678867746816</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1259,7 +1259,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>t-638007752250396672</t>
+          <t>t-973683665661198337</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1272,24 +1272,24 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>t-687924478219685888</t>
+          <t>t-982113517636435969</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>t-687934498701455360</t>
+          <t>t-982126921570893825</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -1298,20 +1298,20 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>t-746432967740882945</t>
+          <t>t-985145363618246656</t>
         </is>
       </c>
       <c r="B67" t="n">
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>t-835997827369156608</t>
+          <t>t-985306564868354049</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1324,33 +1324,33 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>t-903960318652669952</t>
+          <t>t-1000042512319483904</t>
         </is>
       </c>
       <c r="B69" t="n">
         <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>t-903973451970392064</t>
+          <t>t-1000115343019343872</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>t-928952366598037506</t>
+          <t>t-1000762573766184961</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1363,76 +1363,76 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>t-950256330316615680</t>
+          <t>t-1001659726067830785</t>
         </is>
       </c>
       <c r="B72" t="n">
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>t-1017282491193782272</t>
+          <t>t-1028763648074940416</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>t-538858836992331776</t>
+          <t>t-1028815266174517249</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>t-753345702428827652</t>
+          <t>t-1028873828355780608</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>t-753345808620105728</t>
+          <t>t-1029034881769197569</t>
         </is>
       </c>
       <c r="B76" t="n">
         <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>t-753350269518409728</t>
+          <t>t-1029100538422587393</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -1441,7 +1441,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>t-770776256669372416</t>
+          <t>t-1036653090664075265</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -1454,20 +1454,20 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>t-847556586600095745</t>
+          <t>t-1036716876020285440</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>t-1006061673487138817</t>
+          <t>t-1037295289206546433</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1480,7 +1480,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>t-593974566453555201</t>
+          <t>t-1037346167451992064</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -1493,7 +1493,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>t-745031440031694848</t>
+          <t>t-1037351232451608577</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -1506,33 +1506,33 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>t-876870634885844994</t>
+          <t>t-1037351271697657857</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>t-876897987485630464</t>
+          <t>t-1037367364231344128</t>
         </is>
       </c>
       <c r="B84" t="n">
         <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>t-876995236253376512</t>
+          <t>t-1037535909296709632</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -1545,7 +1545,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>t-984799310717030402</t>
+          <t>t-875896081233567744</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -1558,20 +1558,20 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>t-985113601743704064</t>
+          <t>t-502103720327671808</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>t-985197038014001152</t>
+          <t>t-754609055683915776</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -1584,7 +1584,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>t-999634090503569409</t>
+          <t>t-762401879758372864</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -1597,11 +1597,11 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>t-513123960192794624</t>
+          <t>t-762402279601344512</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -1610,7 +1610,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>t-618395942002102272</t>
+          <t>t-762404827229892608</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -1623,7 +1623,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>t-580481361141743616</t>
+          <t>t-778024515909537792</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -1636,7 +1636,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>t-670312803173986304</t>
+          <t>t-1012224879310057472</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -1649,7 +1649,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>t-927521858815131648</t>
+          <t>t-517568253363634176</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -1662,33 +1662,33 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>t-1031705611933831168</t>
+          <t>t-518546395729379328</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>t-897129980584439812</t>
+          <t>t-519264703466315776</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>t-552005598615597057</t>
+          <t>t-594694315915350017</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -1701,7 +1701,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>t-552017511018168320</t>
+          <t>t-685243474623336449</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -1714,24 +1714,24 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>t-552021252442169344</t>
+          <t>t-687924478219685888</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>t-552065463610802176</t>
+          <t>t-687934498701455360</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -1740,7 +1740,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>t-552468777791524864</t>
+          <t>t-730338940872445952</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -1753,11 +1753,11 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>t-818386811332558848</t>
+          <t>t-731342823132274688</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -1766,20 +1766,20 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>t-818898970961473536</t>
+          <t>t-739238212518957060</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>t-955387095228567552</t>
+          <t>t-739379635675271168</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -1792,11 +1792,11 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>t-986841970411823104</t>
+          <t>t-798458981752573952</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -1805,89 +1805,89 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>t-682141165802631168</t>
+          <t>t-798478057195507713</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>t-918095751158300672</t>
+          <t>t-798508699044220928</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>t-918096410427486208</t>
+          <t>t-798530247192965122</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>t-918845060900380672</t>
+          <t>t-799607144802750464</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>t-542093659286429696</t>
+          <t>t-841634951439220736</t>
         </is>
       </c>
       <c r="B110" t="n">
         <v>1</v>
       </c>
       <c r="C110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>t-552038248218767360</t>
+          <t>t-893144326049419264</t>
         </is>
       </c>
       <c r="B111" t="n">
         <v>0</v>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>t-552266751304798209</t>
+          <t>t-976076558824767489</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -1896,11 +1896,11 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>t-949552218650365952</t>
+          <t>t-753345702428827652</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C113" t="n">
         <v>1</v>
@@ -1909,20 +1909,20 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>t-782023965489238017</t>
+          <t>t-753345808620105728</t>
         </is>
       </c>
       <c r="B114" t="n">
         <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>t-843361396750409728</t>
+          <t>t-753350269518409728</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -1935,7 +1935,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>t-952138958368051200</t>
+          <t>t-847556586600095745</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -1948,7 +1948,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>t-952754172880863232</t>
+          <t>t-903265153931608064</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -1961,7 +1961,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>t-560903834407817217</t>
+          <t>t-593974566453555201</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -1974,7 +1974,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>t-752638920505131008</t>
+          <t>t-618057796345593856</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -1987,7 +1987,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>t-879367414802153472</t>
+          <t>t-619513224057061376</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -2000,7 +2000,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>t-604735735154012160</t>
+          <t>t-767098705790906368</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -2013,7 +2013,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>t-658242856386187264</t>
+          <t>t-923950718209359874</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -2026,20 +2026,20 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>t-578289267857891328</t>
+          <t>t-923955178688188416</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>t-603598228022501376</t>
+          <t>t-923988304076464128</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -2052,20 +2052,20 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>t-737748026983354372</t>
+          <t>t-984799310717030402</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>t-737752255571595264</t>
+          <t>t-985113601743704064</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -2078,20 +2078,20 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>t-986530301030682624</t>
+          <t>t-985197038014001152</t>
         </is>
       </c>
       <c r="B127" t="n">
         <v>0</v>
       </c>
       <c r="C127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>t-1040717985516859392</t>
+          <t>t-999634090503569409</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -2104,11 +2104,11 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>t-612099863975583744</t>
+          <t>t-512768543989825541</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -2117,33 +2117,33 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>t-612781430335082496</t>
+          <t>t-751267650043387906</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>t-612783809587580928</t>
+          <t>t-768897641946181632</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>t-733769545261944833</t>
+          <t>t-768901368044134400</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -2156,7 +2156,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>t-759898000407662594</t>
+          <t>t-1018620410819219456</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -2169,37 +2169,37 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>t-791266893470568448</t>
+          <t>t-1027386544536150016</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>t-791268686447378433</t>
+          <t>t-670312803173986304</t>
         </is>
       </c>
       <c r="B135" t="n">
         <v>0</v>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>t-948592886060380161</t>
+          <t>t-774727266823581696</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C136" t="n">
         <v>1</v>
@@ -2208,7 +2208,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>t-973190028435353600</t>
+          <t>t-832310546871484416</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -2221,7 +2221,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>t-979726568175165440</t>
+          <t>t-840253641885913088</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -2234,11 +2234,11 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>t-621875663901863937</t>
+          <t>t-858145943971037184</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -2247,11 +2247,11 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>t-756982430985166848</t>
+          <t>t-858516314167627776</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C140" t="n">
         <v>1</v>
@@ -2260,11 +2260,11 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>t-756983738035077120</t>
+          <t>t-552005598615597057</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
@@ -2273,11 +2273,11 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>t-757172169029804034</t>
+          <t>t-552017511018168320</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C142" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>t-834484332148297728</t>
+          <t>t-552021252442169344</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -2299,24 +2299,24 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>t-988107827615952898</t>
+          <t>t-552065463610802176</t>
         </is>
       </c>
       <c r="B144" t="n">
         <v>0</v>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>t-649543845269667840</t>
+          <t>t-552468777791524864</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
@@ -2325,20 +2325,20 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>t-753685864471863300</t>
+          <t>t-818386811332558848</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>t-861649200160710656</t>
+          <t>t-818898970961473536</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -2351,20 +2351,20 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>t-883046827251179521</t>
+          <t>t-926892709188702208</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>t-883048887786909698</t>
+          <t>t-986841970411823104</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -2377,11 +2377,11 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>t-883064523128791040</t>
+          <t>t-540871484869472256</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
@@ -2390,46 +2390,46 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>t-883077275679432704</t>
+          <t>t-543357722591514624</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>t-883080365442838528</t>
+          <t>t-682141165802631168</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>t-883215183442739200</t>
+          <t>t-542093659286429696</t>
         </is>
       </c>
       <c r="B153" t="n">
         <v>1</v>
       </c>
       <c r="C153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>t-889517070559334400</t>
+          <t>t-833840054363619329</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -2442,33 +2442,33 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>t-1025638750783778816</t>
+          <t>t-547131830642569216</t>
         </is>
       </c>
       <c r="B155" t="n">
         <v>1</v>
       </c>
       <c r="C155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>t-898119475089686528</t>
+          <t>t-778616752993214464</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>t-898375447507030017</t>
+          <t>t-876969646846603270</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -2481,33 +2481,33 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>t-898397795245215744</t>
+          <t>t-602966767602831362</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>t-985241133159796736</t>
+          <t>t-602969826642898945</t>
         </is>
       </c>
       <c r="B159" t="n">
         <v>1</v>
       </c>
       <c r="C159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>t-1021604631217164289</t>
+          <t>t-603005702697713664</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -2520,24 +2520,24 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>t-1021652512343031808</t>
+          <t>t-611182304984109057</t>
         </is>
       </c>
       <c r="B161" t="n">
         <v>1</v>
       </c>
       <c r="C161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>t-1021683870188503041</t>
+          <t>t-707957967094685696</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C162" t="n">
         <v>1</v>
@@ -2546,33 +2546,33 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>t-1021786238024527873</t>
+          <t>t-1040717985516859392</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>t-1031076096287105024</t>
+          <t>t-1060963338337902593</t>
         </is>
       </c>
       <c r="B164" t="n">
         <v>1</v>
       </c>
       <c r="C164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>t-657266493659435008</t>
+          <t>t-907490044335636480</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -2585,7 +2585,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>t-692385146725646340</t>
+          <t>t-759898000407662594</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -2598,59 +2598,59 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>t-640924573647503360</t>
+          <t>t-809566350368796673</t>
         </is>
       </c>
       <c r="B167" t="n">
         <v>0</v>
       </c>
       <c r="C167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>t-641489320088436736</t>
+          <t>t-860938986382135296</t>
         </is>
       </c>
       <c r="B168" t="n">
         <v>1</v>
       </c>
       <c r="C168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>t-652481072199036928</t>
+          <t>t-861076485599354880</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>t-708426270242164736</t>
+          <t>t-994221853211267073</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>t-721832870604640260</t>
+          <t>t-1043269235474984960</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -2663,20 +2663,20 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>t-721856912548044800</t>
+          <t>t-649543845269667840</t>
         </is>
       </c>
       <c r="B172" t="n">
         <v>1</v>
       </c>
       <c r="C172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>t-722873292755828736</t>
+          <t>t-1006535367464509440</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -2689,7 +2689,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>t-735525963610660865</t>
+          <t>t-1006670876169949190</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -2702,7 +2702,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>t-736203598091190272</t>
+          <t>t-883046827251179521</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -2715,46 +2715,46 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>t-780146894357929984</t>
+          <t>t-883048887786909698</t>
         </is>
       </c>
       <c r="B176" t="n">
         <v>0</v>
       </c>
       <c r="C176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>t-913139045009633280</t>
+          <t>t-883064523128791040</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>t-913178067195088902</t>
+          <t>t-883077275679432704</t>
         </is>
       </c>
       <c r="B178" t="n">
         <v>1</v>
       </c>
       <c r="C178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>t-913438297258708992</t>
+          <t>t-840282206979444737</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -2767,7 +2767,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>t-992252736560222210</t>
+          <t>t-840289139450925056</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -2780,20 +2780,20 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>t-1009549219240308737</t>
+          <t>t-1005457960703754240</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>t-760920272639852545</t>
+          <t>t-977485288892059648</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -2806,20 +2806,20 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>t-760967260039106560</t>
+          <t>t-888405582352437248</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>t-760972532421984261</t>
+          <t>t-892821066799820805</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -2832,7 +2832,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>t-760978989359833088</t>
+          <t>t-898119475089686528</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -2845,7 +2845,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>t-761017815637696513</t>
+          <t>t-898375447507030017</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -2858,11 +2858,11 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>t-761048712214818816</t>
+          <t>t-898397795245215744</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C187" t="n">
         <v>1</v>
@@ -2871,33 +2871,33 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>t-761049587066867712</t>
+          <t>t-924790802882146304</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>t-761050328493985794</t>
+          <t>t-1031076096287105024</t>
         </is>
       </c>
       <c r="B189" t="n">
         <v>1</v>
       </c>
       <c r="C189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>t-761057847262142465</t>
+          <t>t-507905858265960448</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -2910,33 +2910,33 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>t-886785151694512128</t>
+          <t>t-604384366886834177</t>
         </is>
       </c>
       <c r="B191" t="n">
         <v>1</v>
       </c>
       <c r="C191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>t-886797636501520384</t>
+          <t>t-604797500965265408</t>
         </is>
       </c>
       <c r="B192" t="n">
         <v>1</v>
       </c>
       <c r="C192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>t-886952472035549185</t>
+          <t>t-605112787141033985</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -2949,7 +2949,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>t-887152237432061952</t>
+          <t>t-605369768720396288</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -2962,46 +2962,46 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>t-887308832208293888</t>
+          <t>t-635524506925314049</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>t-888147986982649856</t>
+          <t>t-785997107094093825</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>t-1032014514642870273</t>
+          <t>t-898515685369946113</t>
         </is>
       </c>
       <c r="B197" t="n">
         <v>1</v>
       </c>
       <c r="C197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>t-1032716444352565254</t>
+          <t>t-911712205657317376</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -3014,20 +3014,20 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>t-1032730617966985222</t>
+          <t>t-978842874749046784</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>t-1032743287877251074</t>
+          <t>t-979067875213234176</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -3040,7 +3040,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>t-1032755601561059328</t>
+          <t>t-992252736560222210</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -3053,11 +3053,11 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>t-1032777059473358848</t>
+          <t>t-1009549219240308737</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C202" t="n">
         <v>1</v>
@@ -3066,7 +3066,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>t-1032803632398229504</t>
+          <t>t-1050012662120235008</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -3079,37 +3079,37 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>t-1032806227296890880</t>
+          <t>t-533407970244456448</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>t-1032811146875727872</t>
+          <t>t-593171698846830592</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>t-1032864439245000704</t>
+          <t>t-611619605899939841</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C206" t="n">
         <v>1</v>
@@ -3118,20 +3118,20 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>t-1032982302542966789</t>
+          <t>t-626642400555892737</t>
         </is>
       </c>
       <c r="B207" t="n">
         <v>1</v>
       </c>
       <c r="C207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>t-1033200303871545344</t>
+          <t>t-626741309693394948</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -3144,7 +3144,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>t-1033518891744411648</t>
+          <t>t-626870204199534598</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -3157,11 +3157,11 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>t-1054153981998575616</t>
+          <t>t-646027426347155456</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C210" t="n">
         <v>1</v>
@@ -3170,7 +3170,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>t-533830044200599552</t>
+          <t>t-1032014514642870273</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -3183,7 +3183,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>t-534294668842766337</t>
+          <t>t-1032716444352565254</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -3196,7 +3196,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>t-673774894543470592</t>
+          <t>t-1032730617966985222</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -3209,7 +3209,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>t-673911765848035328</t>
+          <t>t-1032743287877251074</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -3222,24 +3222,24 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>t-683790340701073408</t>
+          <t>t-1032755601561059328</t>
         </is>
       </c>
       <c r="B215" t="n">
         <v>1</v>
       </c>
       <c r="C215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>t-836289804664979457</t>
+          <t>t-1032777059473358848</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C216" t="n">
         <v>1</v>
@@ -3248,11 +3248,11 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>t-577773253898477568</t>
+          <t>t-1032803632398229504</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
@@ -3261,50 +3261,50 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>t-577808831918579712</t>
+          <t>t-1032806227296890880</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>t-594878604397432832</t>
+          <t>t-1032811146875727872</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>t-721969035412422656</t>
+          <t>t-1032864439245000704</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>t-722671206881746944</t>
+          <t>t-1032982302542966789</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C221" t="n">
         <v>1</v>
@@ -3313,24 +3313,24 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>t-732832771106865153</t>
+          <t>t-1033200303871545344</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>t-845940693256286208</t>
+          <t>t-1033518891744411648</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C223" t="n">
         <v>1</v>
@@ -3339,11 +3339,11 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>t-957285309796044800</t>
+          <t>t-683790340701073408</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C224" t="n">
         <v>1</v>
@@ -3352,11 +3352,11 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>t-957305309328039936</t>
+          <t>t-903370281829498882</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C225" t="n">
         <v>1</v>
@@ -3365,46 +3365,46 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>t-957621820626276353</t>
+          <t>t-569509595133173761</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>t-958690487875055616</t>
+          <t>t-594878604397432832</t>
         </is>
       </c>
       <c r="B227" t="n">
         <v>0</v>
       </c>
       <c r="C227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>t-1026228357996969984</t>
+          <t>t-630004911024046080</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>t-1041944531015483392</t>
+          <t>t-630051857654751232</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -3417,46 +3417,46 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>t-1042049144620285953</t>
+          <t>t-630833400857919488</t>
         </is>
       </c>
       <c r="B230" t="n">
         <v>0</v>
       </c>
       <c r="C230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>t-1014627656082579457</t>
+          <t>t-638674545726066688</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>t-859608993752379392</t>
+          <t>t-638724428944150528</t>
         </is>
       </c>
       <c r="B232" t="n">
         <v>1</v>
       </c>
       <c r="C232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>t-1045126070540865541</t>
+          <t>t-639699321500364800</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -3469,7 +3469,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>t-833086724096028673</t>
+          <t>t-639804238848237568</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -3482,11 +3482,11 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>t-561705902466957314</t>
+          <t>t-647384012202356736</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C235" t="n">
         <v>1</v>
@@ -3495,20 +3495,20 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>t-570559495811813376</t>
+          <t>t-648159002224914436</t>
         </is>
       </c>
       <c r="B236" t="n">
         <v>1</v>
       </c>
       <c r="C236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>t-570650767369109504</t>
+          <t>t-648232794137718784</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -3521,46 +3521,46 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>t-570656230466838528</t>
+          <t>t-648426685910618112</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>t-570659758706962432</t>
+          <t>t-681483416165048320</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>t-570724512095969280</t>
+          <t>t-705116084911763456</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>t-570966152807100416</t>
+          <t>t-726061174727532544</t>
         </is>
       </c>
       <c r="B241" t="n">
@@ -3573,11 +3573,11 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>t-570990183648243712</t>
+          <t>t-732832771106865153</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -3586,33 +3586,33 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>t-571060362520502272</t>
+          <t>t-767994872578056192</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>t-571231922355097600</t>
+          <t>t-832931106873819136</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>t-571320451407974400</t>
+          <t>t-856624832292827137</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -3625,46 +3625,46 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>t-571330597400018944</t>
+          <t>t-903533073358352385</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>t-571345826099941376</t>
+          <t>t-903589529143189504</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>t-571920017329156096</t>
+          <t>t-936972059766415360</t>
         </is>
       </c>
       <c r="B248" t="n">
         <v>0</v>
       </c>
       <c r="C248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>t-572029056453115906</t>
+          <t>t-957285309796044800</t>
         </is>
       </c>
       <c r="B249" t="n">
@@ -3677,7 +3677,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>t-573087826360836097</t>
+          <t>t-957305309328039936</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -3690,11 +3690,11 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>t-663721804310122496</t>
+          <t>t-957621820626276353</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C251" t="n">
         <v>1</v>
@@ -3703,11 +3703,11 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>t-946151169231114241</t>
+          <t>t-958690487875055616</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C252" t="n">
         <v>1</v>
@@ -3716,33 +3716,33 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>t-1060159476664356864</t>
+          <t>t-1039508390869786629</t>
         </is>
       </c>
       <c r="B253" t="n">
         <v>1</v>
       </c>
       <c r="C253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>t-560425264807944193</t>
+          <t>t-1039553624345661440</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>t-570999709160116224</t>
+          <t>t-1039619721644191744</t>
         </is>
       </c>
       <c r="B255" t="n">
@@ -3755,7 +3755,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>t-571255966727053312</t>
+          <t>t-1052331593933688832</t>
         </is>
       </c>
       <c r="B256" t="n">
@@ -3768,7 +3768,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>t-573120640175112192</t>
+          <t>t-1052814538419003392</t>
         </is>
       </c>
       <c r="B257" t="n">
@@ -3781,33 +3781,33 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>t-628489671656517632</t>
+          <t>t-1052930779947393024</t>
         </is>
       </c>
       <c r="B258" t="n">
         <v>1</v>
       </c>
       <c r="C258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>t-736272987683426305</t>
+          <t>t-1052972300667146241</t>
         </is>
       </c>
       <c r="B259" t="n">
         <v>1</v>
       </c>
       <c r="C259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>t-772934103733788672</t>
+          <t>t-1053005694822207488</t>
         </is>
       </c>
       <c r="B260" t="n">
@@ -3820,20 +3820,20 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>t-772960588171403264</t>
+          <t>t-1053014697077817346</t>
         </is>
       </c>
       <c r="B261" t="n">
         <v>1</v>
       </c>
       <c r="C261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>t-773538620472979456</t>
+          <t>t-1053091674438725632</t>
         </is>
       </c>
       <c r="B262" t="n">
@@ -3846,20 +3846,20 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>t-773979956305100800</t>
+          <t>t-1053211878921568256</t>
         </is>
       </c>
       <c r="B263" t="n">
         <v>1</v>
       </c>
       <c r="C263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>t-800018818399694848</t>
+          <t>t-1053220103070932992</t>
         </is>
       </c>
       <c r="B264" t="n">
@@ -3872,37 +3872,37 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>t-800716652195282946</t>
+          <t>t-1053451825607774209</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>t-854766668387684352</t>
+          <t>t-1053915265375834112</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>t-855160087563907072</t>
+          <t>t-754470366408507392</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C267" t="n">
         <v>1</v>
@@ -3911,7 +3911,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>t-855212425251086337</t>
+          <t>t-910953097316376576</t>
         </is>
       </c>
       <c r="B268" t="n">
@@ -3924,20 +3924,20 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>t-864137650625753088</t>
+          <t>t-910955895714123776</t>
         </is>
       </c>
       <c r="B269" t="n">
         <v>1</v>
       </c>
       <c r="C269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>t-864465975068037122</t>
+          <t>t-602992695011889152</t>
         </is>
       </c>
       <c r="B270" t="n">
@@ -3950,11 +3950,11 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>t-864657619700658176</t>
+          <t>t-696805827110428676</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C271" t="n">
         <v>1</v>
@@ -3963,7 +3963,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>t-891969624929075201</t>
+          <t>t-893162180492787716</t>
         </is>
       </c>
       <c r="B272" t="n">
@@ -3976,7 +3976,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>t-892105609071349760</t>
+          <t>t-549835920762220544</t>
         </is>
       </c>
       <c r="B273" t="n">
@@ -3989,11 +3989,11 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>t-892129259686428672</t>
+          <t>t-669588910935285760</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C274" t="n">
         <v>0</v>
@@ -4002,20 +4002,20 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>t-913738686994501632</t>
+          <t>t-669601333348073473</t>
         </is>
       </c>
       <c r="B275" t="n">
         <v>1</v>
       </c>
       <c r="C275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>t-913756608974540800</t>
+          <t>t-821117207245713408</t>
         </is>
       </c>
       <c r="B276" t="n">
@@ -4028,7 +4028,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>t-913812012400087040</t>
+          <t>t-1060159476664356864</t>
         </is>
       </c>
       <c r="B277" t="n">
@@ -4041,7 +4041,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>t-571264964683436033</t>
+          <t>t-563347902408695811</t>
         </is>
       </c>
       <c r="B278" t="n">
@@ -4054,46 +4054,46 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>t-798356661148655616</t>
+          <t>t-632590097284734976</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>t-798650812511588352</t>
+          <t>t-800018818399694848</t>
         </is>
       </c>
       <c r="B280" t="n">
         <v>1</v>
       </c>
       <c r="C280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>t-763085869045653505</t>
+          <t>t-800716652195282946</t>
         </is>
       </c>
       <c r="B281" t="n">
         <v>0</v>
       </c>
       <c r="C281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>t-763088808799797248</t>
+          <t>t-968874912806068224</t>
         </is>
       </c>
       <c r="B282" t="n">
@@ -4106,7 +4106,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>t-860196024056414208</t>
+          <t>t-992126872036233224</t>
         </is>
       </c>
       <c r="B283" t="n">
@@ -4119,7 +4119,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>t-889534953825779712</t>
+          <t>t-993085432052273153</t>
         </is>
       </c>
       <c r="B284" t="n">
@@ -4132,7 +4132,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>t-889639312169500672</t>
+          <t>t-817491496857255936</t>
         </is>
       </c>
       <c r="B285" t="n">
@@ -4145,11 +4145,11 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>t-873677712304463872</t>
+          <t>t-648439576441171968</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C286" t="n">
         <v>1</v>
@@ -4158,63 +4158,63 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>t-874804635327905792</t>
+          <t>t-649621017187512320</t>
         </is>
       </c>
       <c r="B287" t="n">
         <v>1</v>
       </c>
       <c r="C287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>t-821077876112035840</t>
+          <t>t-651859489713291264</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>t-821090113476325376</t>
+          <t>t-652540388272553984</t>
         </is>
       </c>
       <c r="B289" t="n">
         <v>1</v>
       </c>
       <c r="C289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>t-580101390820876288</t>
+          <t>t-652542102539235329</t>
         </is>
       </c>
       <c r="B290" t="n">
         <v>1</v>
       </c>
       <c r="C290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>t-580474226571915265</t>
+          <t>t-892449776129777665</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C291" t="n">
         <v>1</v>
@@ -4223,11 +4223,11 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>t-581395014502191104</t>
+          <t>t-892462041277091840</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C292" t="n">
         <v>1</v>
@@ -4236,7 +4236,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>t-724222646435508224</t>
+          <t>t-892471980875808773</t>
         </is>
       </c>
       <c r="B293" t="n">
@@ -4249,33 +4249,33 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>t-848618580681912320</t>
+          <t>t-892472490483646466</t>
         </is>
       </c>
       <c r="B294" t="n">
         <v>1</v>
       </c>
       <c r="C294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>t-848657153367953411</t>
+          <t>t-892606487482089472</t>
         </is>
       </c>
       <c r="B295" t="n">
         <v>1</v>
       </c>
       <c r="C295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>t-848877245439594496</t>
+          <t>t-892633367342088192</t>
         </is>
       </c>
       <c r="B296" t="n">
@@ -4288,11 +4288,11 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>t-612283618052825088</t>
+          <t>t-892700840817045504</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
@@ -4301,11 +4301,11 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>t-622598644009668608</t>
+          <t>t-892731725897281538</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C298" t="n">
         <v>1</v>
@@ -4314,20 +4314,20 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>t-631280418583658496</t>
+          <t>t-901999787855228933</t>
         </is>
       </c>
       <c r="B299" t="n">
         <v>1</v>
       </c>
       <c r="C299" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>t-639100384343101440</t>
+          <t>t-902015237951549441</t>
         </is>
       </c>
       <c r="B300" t="n">
@@ -4340,11 +4340,11 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>t-636961984953630720</t>
+          <t>t-925720058432811008</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C301" t="n">
         <v>0</v>
@@ -4353,59 +4353,59 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>t-680032445673148416</t>
+          <t>t-599363330575364096</t>
         </is>
       </c>
       <c r="B302" t="n">
         <v>0</v>
       </c>
       <c r="C302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>t-735633517237919744</t>
+          <t>t-889534953825779712</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C303" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>t-1039755728448352257</t>
+          <t>t-889639312169500672</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>t-1039888860501688320</t>
+          <t>t-960911174505238534</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>t-643571264011898881</t>
+          <t>t-1027967787312939008</t>
         </is>
       </c>
       <c r="B306" t="n">
@@ -4418,7 +4418,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>t-671722697408290816</t>
+          <t>t-1047526401644138497</t>
         </is>
       </c>
       <c r="B307" t="n">
@@ -4431,98 +4431,98 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>t-1006709802775412736</t>
+          <t>t-874804635327905792</t>
         </is>
       </c>
       <c r="B308" t="n">
         <v>1</v>
       </c>
       <c r="C308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>t-659172274482733056</t>
+          <t>t-1002347419114311681</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>t-659184469690175488</t>
+          <t>t-935929183758356480</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>t-1041361257410904064</t>
+          <t>t-601584910428729344</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>t-1041679427464298496</t>
+          <t>t-880307230364508160</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>t-910961880700559360</t>
+          <t>t-610843183715463168</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>t-668278058953084928</t>
+          <t>t-612283618052825088</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>t-715587588204015616</t>
+          <t>t-634366408906768384</t>
         </is>
       </c>
       <c r="B315" t="n">
@@ -4535,11 +4535,11 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>t-679420394223345665</t>
+          <t>t-735633517237919744</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C316" t="n">
         <v>1</v>
@@ -4548,11 +4548,11 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>t-848401927432019970</t>
+          <t>t-639559017052803076</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C317" t="n">
         <v>1</v>
@@ -4561,7 +4561,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>t-720246081364365312</t>
+          <t>t-771587937746071552</t>
         </is>
       </c>
       <c r="B318" t="n">
@@ -4574,7 +4574,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>t-720295493985677312</t>
+          <t>t-643571264011898881</t>
         </is>
       </c>
       <c r="B319" t="n">
@@ -4587,7 +4587,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>t-725450676986335232</t>
+          <t>t-1055172080499515392</t>
         </is>
       </c>
       <c r="B320" t="n">
@@ -4600,46 +4600,46 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>t-910172109506273280</t>
+          <t>t-1055204302220943368</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C321" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>t-913012097595867137</t>
+          <t>t-719978473687633922</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>t-738154348752953345</t>
+          <t>t-648598850530226176</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>t-738363319199928321</t>
+          <t>t-756001538783326208</t>
         </is>
       </c>
       <c r="B324" t="n">
@@ -4652,7 +4652,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>t-738396040357761024</t>
+          <t>t-756128433025843200</t>
         </is>
       </c>
       <c r="B325" t="n">
@@ -4665,7 +4665,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>t-738456086156443648</t>
+          <t>t-756153001300156416</t>
         </is>
       </c>
       <c r="B326" t="n">
@@ -4678,7 +4678,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>t-738474348290277376</t>
+          <t>t-756172674531942400</t>
         </is>
       </c>
       <c r="B327" t="n">
@@ -4691,20 +4691,20 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>t-1029396532313968640</t>
+          <t>t-765678719205724160</t>
         </is>
       </c>
       <c r="B328" t="n">
         <v>1</v>
       </c>
       <c r="C328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>t-1029397392343425024</t>
+          <t>t-981921278876684288</t>
         </is>
       </c>
       <c r="B329" t="n">
@@ -4717,11 +4717,11 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>t-1029408763877498885</t>
+          <t>t-678946767459618818</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -4730,24 +4730,24 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>t-1029408838305361921</t>
+          <t>t-679082878148341760</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C331" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>t-1029566349918527488</t>
+          <t>t-762742863394254850</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -4756,20 +4756,20 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>t-753754552936136704</t>
+          <t>t-679420394223345665</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C333" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>t-843607928133292033</t>
+          <t>t-913012097595867137</t>
         </is>
       </c>
       <c r="B334" t="n">
@@ -4782,20 +4782,20 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>t-971386931857772544</t>
+          <t>t-1016527492478328832</t>
         </is>
       </c>
       <c r="B335" t="n">
         <v>1</v>
       </c>
       <c r="C335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>t-895778141523894272</t>
+          <t>t-1011820273774006272</t>
         </is>
       </c>
       <c r="B336" t="n">
@@ -4808,20 +4808,20 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>t-1042371802121596928</t>
+          <t>t-1012308763422937089</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C337" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>t-817388602090987520</t>
+          <t>t-1021764160093401089</t>
         </is>
       </c>
       <c r="B338" t="n">
@@ -4834,7 +4834,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>t-823317212446556161</t>
+          <t>t-1022188431483387905</t>
         </is>
       </c>
       <c r="B339" t="n">
@@ -4847,7 +4847,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>t-847243626082050048</t>
+          <t>t-1022188766964998144</t>
         </is>
       </c>
       <c r="B340" t="n">
@@ -4860,11 +4860,11 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>t-847412512383356932</t>
+          <t>t-1022577266117824514</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -4873,33 +4873,33 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>t-847416452424519680</t>
+          <t>t-1023560708376748032</t>
         </is>
       </c>
       <c r="B342" t="n">
         <v>1</v>
       </c>
       <c r="C342" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>t-847625871712112640</t>
+          <t>t-1023767948165562368</t>
         </is>
       </c>
       <c r="B343" t="n">
         <v>1</v>
       </c>
       <c r="C343" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>t-847873968065433600</t>
+          <t>t-1023931290045829121</t>
         </is>
       </c>
       <c r="B344" t="n">
@@ -4912,7 +4912,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>t-848285144846921728</t>
+          <t>t-1024052229152669696</t>
         </is>
       </c>
       <c r="B345" t="n">
@@ -4925,7 +4925,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>t-848349687950266373</t>
+          <t>t-1025467650649014283</t>
         </is>
       </c>
       <c r="B346" t="n">
@@ -4938,7 +4938,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>t-848632201470259200</t>
+          <t>t-1025523844994412544</t>
         </is>
       </c>
       <c r="B347" t="n">
@@ -4951,7 +4951,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>t-848638922687221760</t>
+          <t>t-1025538626191380480</t>
         </is>
       </c>
       <c r="B348" t="n">
@@ -4964,7 +4964,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>t-848870222769606658</t>
+          <t>t-1026286692037222401</t>
         </is>
       </c>
       <c r="B349" t="n">
@@ -4977,33 +4977,33 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>t-848971430775709697</t>
+          <t>t-1026301775203037184</t>
         </is>
       </c>
       <c r="B350" t="n">
         <v>1</v>
       </c>
       <c r="C350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>t-849083151532032000</t>
+          <t>t-1026820332710252544</t>
         </is>
       </c>
       <c r="B351" t="n">
         <v>1</v>
       </c>
       <c r="C351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>t-849228504088670208</t>
+          <t>t-1027725663703363584</t>
         </is>
       </c>
       <c r="B352" t="n">
@@ -5016,7 +5016,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>t-852608222380924929</t>
+          <t>t-880159202567753728</t>
         </is>
       </c>
       <c r="B353" t="n">
@@ -5029,20 +5029,20 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>t-852804949515698178</t>
+          <t>t-915593286122950656</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C354" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>t-830540407763300352</t>
+          <t>t-915603421222309888</t>
         </is>
       </c>
       <c r="B355" t="n">
@@ -5055,33 +5055,33 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>t-850386711385260034</t>
+          <t>t-915603564743073792</t>
         </is>
       </c>
       <c r="B356" t="n">
         <v>1</v>
       </c>
       <c r="C356" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>t-863757133304795136</t>
+          <t>t-783618446827356161</t>
         </is>
       </c>
       <c r="B357" t="n">
         <v>1</v>
       </c>
       <c r="C357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>t-854163806288834560</t>
+          <t>t-784456852864065536</t>
         </is>
       </c>
       <c r="B358" t="n">
@@ -5094,20 +5094,20 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>t-860879398387556352</t>
+          <t>t-897110070059728897</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>t-880971995671875586</t>
+          <t>t-897827875231080448</t>
         </is>
       </c>
       <c r="B360" t="n">
@@ -5120,7 +5120,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>t-882704580865404928</t>
+          <t>t-830540407763300352</t>
         </is>
       </c>
       <c r="B361" t="n">
@@ -5133,7 +5133,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>t-1034597062573211651</t>
+          <t>t-861539001962041345</t>
         </is>
       </c>
       <c r="B362" t="n">
@@ -5146,11 +5146,11 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>t-1036704309923246081</t>
+          <t>t-848529770258288642</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C363" t="n">
         <v>0</v>
@@ -5159,11 +5159,11 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>t-1034792477096652801</t>
+          <t>t-884885746984681473</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C364" t="n">
         <v>1</v>
@@ -5172,37 +5172,37 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>t-1041752836835614720</t>
+          <t>t-884938114657128448</t>
         </is>
       </c>
       <c r="B365" t="n">
         <v>1</v>
       </c>
       <c r="C365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>t-542806015075713026</t>
+          <t>t-951198867181236228</t>
         </is>
       </c>
       <c r="B366" t="n">
         <v>0</v>
       </c>
       <c r="C366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>t-859937675339497473</t>
+          <t>t-877327075954245633</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C367" t="n">
         <v>1</v>
@@ -5211,24 +5211,24 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>t-912723744195596289</t>
+          <t>t-966639239407525888</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C368" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>t-952288702339997696</t>
+          <t>t-880054371417018369</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C369" t="n">
         <v>0</v>
@@ -5237,7 +5237,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>t-952549733930885120</t>
+          <t>t-880971995671875586</t>
         </is>
       </c>
       <c r="B370" t="n">
@@ -5250,24 +5250,24 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>t-952956945098473472</t>
+          <t>t-1042065710745309186</t>
         </is>
       </c>
       <c r="B371" t="n">
         <v>1</v>
       </c>
       <c r="C371" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>t-991032269405073408</t>
+          <t>t-1043080309376466944</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C372" t="n">
         <v>0</v>
@@ -5276,33 +5276,33 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>t-991077450368061440</t>
+          <t>t-1043179210905464832</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C373" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>t-642734533335453700</t>
+          <t>t-499943241962487808</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C374" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>t-773146400129441792</t>
+          <t>t-588767869539733506</t>
         </is>
       </c>
       <c r="B375" t="n">
@@ -5315,11 +5315,11 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>t-776037646023925760</t>
+          <t>t-708340740556980225</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C376" t="n">
         <v>0</v>
@@ -5328,50 +5328,50 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>t-927168021512126464</t>
+          <t>t-850388688303529986</t>
         </is>
       </c>
       <c r="B377" t="n">
         <v>0</v>
       </c>
       <c r="C377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>t-1006187748338864128</t>
+          <t>t-850540226590253057</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>t-1006198330727247872</t>
+          <t>t-912723744195596289</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>t-1006207380676280320</t>
+          <t>t-965605976698126341</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C380" t="n">
         <v>1</v>
@@ -5380,7 +5380,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>t-1006582449827209216</t>
+          <t>t-991032269405073408</t>
         </is>
       </c>
       <c r="B381" t="n">
@@ -5393,7 +5393,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>t-750337554457694208</t>
+          <t>t-991077450368061440</t>
         </is>
       </c>
       <c r="B382" t="n">
@@ -5406,7 +5406,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>t-869830075268685825</t>
+          <t>t-1022200671666401281</t>
         </is>
       </c>
       <c r="B383" t="n">
@@ -5419,7 +5419,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>t-520483074711486464</t>
+          <t>t-538351189679939584</t>
         </is>
       </c>
       <c r="B384" t="n">
@@ -5432,11 +5432,11 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>t-520499948983304192</t>
+          <t>t-635439309563260929</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C385" t="n">
         <v>1</v>
@@ -5445,50 +5445,50 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>t-520513908759859200</t>
+          <t>t-635461097114484736</t>
         </is>
       </c>
       <c r="B386" t="n">
         <v>1</v>
       </c>
       <c r="C386" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>t-635444360306368512</t>
+          <t>t-635467880918818816</t>
         </is>
       </c>
       <c r="B387" t="n">
         <v>1</v>
       </c>
       <c r="C387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>t-801681235982557184</t>
+          <t>t-635469518022803456</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C388" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>t-1001002093895921665</t>
+          <t>t-635491308438728704</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C389" t="n">
         <v>1</v>
@@ -5497,46 +5497,46 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>t-642554131211755524</t>
+          <t>t-635718998781390848</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C390" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>t-644488507239628800</t>
+          <t>t-636228687013265410</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>t-644488513442983937</t>
+          <t>t-642734533335453700</t>
         </is>
       </c>
       <c r="B392" t="n">
         <v>0</v>
       </c>
       <c r="C392" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>t-738967171397758976</t>
+          <t>t-738823278840664064</t>
         </is>
       </c>
       <c r="B393" t="n">
@@ -5549,20 +5549,20 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>t-530728667891380225</t>
+          <t>t-773146400129441792</t>
         </is>
       </c>
       <c r="B394" t="n">
         <v>0</v>
       </c>
       <c r="C394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>t-627009098568073216</t>
+          <t>t-786070938412515329</t>
         </is>
       </c>
       <c r="B395" t="n">
@@ -5575,11 +5575,11 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>t-788324770765008896</t>
+          <t>t-786266752061669376</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C396" t="n">
         <v>1</v>
@@ -5588,7 +5588,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>t-819866466162012160</t>
+          <t>t-786287404416135168</t>
         </is>
       </c>
       <c r="B397" t="n">
@@ -5601,11 +5601,11 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>t-865447859285405696</t>
+          <t>t-786588204170346496</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C398" t="n">
         <v>1</v>
@@ -5614,20 +5614,20 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>t-865573879527428096</t>
+          <t>t-786674211528015873</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>t-955738647663431681</t>
+          <t>t-804010972331524096</t>
         </is>
       </c>
       <c r="B400" t="n">
@@ -5640,7 +5640,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>t-955740876436844544</t>
+          <t>t-1006187748338864128</t>
         </is>
       </c>
       <c r="B401" t="n">
@@ -5653,37 +5653,37 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>t-956201264915910656</t>
+          <t>t-1006198330727247872</t>
         </is>
       </c>
       <c r="B402" t="n">
         <v>1</v>
       </c>
       <c r="C402" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>t-960182659325493248</t>
+          <t>t-1006207380676280320</t>
         </is>
       </c>
       <c r="B403" t="n">
         <v>1</v>
       </c>
       <c r="C403" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>t-965860574339923968</t>
+          <t>t-1006582449827209216</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C404" t="n">
         <v>0</v>
@@ -5692,11 +5692,11 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>t-534007858804056066</t>
+          <t>t-591229240311439360</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C405" t="n">
         <v>0</v>
@@ -5705,11 +5705,11 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>t-984048304144166912</t>
+          <t>t-676836902981513216</t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C406" t="n">
         <v>0</v>
@@ -5718,11 +5718,11 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>t-984354039067529216</t>
+          <t>t-737657149174730753</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C407" t="n">
         <v>0</v>
@@ -5731,33 +5731,33 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>t-1049943076859461632</t>
+          <t>t-737657922885423104</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C408" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>t-576412478135005185</t>
+          <t>t-738291666285694976</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>t-577791187240787968</t>
+          <t>t-869830075268685825</t>
         </is>
       </c>
       <c r="B410" t="n">
@@ -5770,20 +5770,20 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>t-578574154607280128</t>
+          <t>t-520483074711486464</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C411" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>t-694507587149111296</t>
+          <t>t-520499948983304192</t>
         </is>
       </c>
       <c r="B412" t="n">
@@ -5796,11 +5796,11 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>t-702966418057330688</t>
+          <t>t-520513908759859200</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C413" t="n">
         <v>0</v>
@@ -5809,24 +5809,24 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>t-703646494901927936</t>
+          <t>t-1001002093895921665</t>
         </is>
       </c>
       <c r="B414" t="n">
         <v>0</v>
       </c>
       <c r="C414" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>t-744549085244334080</t>
+          <t>t-901639048464388096</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C415" t="n">
         <v>0</v>
@@ -5835,7 +5835,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>t-744630770116005888</t>
+          <t>t-901662243594612737</t>
         </is>
       </c>
       <c r="B416" t="n">
@@ -5848,20 +5848,20 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>t-745023417267724289</t>
+          <t>t-901835893232857088</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C417" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>t-745961763473080321</t>
+          <t>t-901991202857377792</t>
         </is>
       </c>
       <c r="B418" t="n">
@@ -5874,11 +5874,11 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>t-746461142604668928</t>
+          <t>t-902096694422228992</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C419" t="n">
         <v>0</v>
@@ -5887,37 +5887,37 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>t-770572723777105920</t>
+          <t>t-902156696407216129</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C420" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>t-806453539409162240</t>
+          <t>t-902188288789925889</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>t-806476961451216896</t>
+          <t>t-902258946840313856</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C422" t="n">
         <v>0</v>
@@ -5926,24 +5926,24 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>t-894594064582094852</t>
+          <t>t-902339386959958016</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C423" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>t-913063437118341121</t>
+          <t>t-902474134315302912</t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C424" t="n">
         <v>0</v>
@@ -5952,7 +5952,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>t-914844848359985152</t>
+          <t>t-931216910477414400</t>
         </is>
       </c>
       <c r="B425" t="n">
@@ -5965,7 +5965,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>t-915131811310714880</t>
+          <t>t-586533262912315392</t>
         </is>
       </c>
       <c r="B426" t="n">
@@ -5978,59 +5978,59 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>t-915495031691235329</t>
+          <t>t-800968114653401088</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>t-915561177966505984</t>
+          <t>t-951835055445413893</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C428" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>t-948989121611075584</t>
+          <t>t-580349296182198273</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C429" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>t-962342450219094016</t>
+          <t>t-595202959648096256</t>
         </is>
       </c>
       <c r="B430" t="n">
         <v>0</v>
       </c>
       <c r="C430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>t-962358038081523713</t>
+          <t>t-627009098568073216</t>
         </is>
       </c>
       <c r="B431" t="n">
@@ -6043,11 +6043,11 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>t-962393573927870466</t>
+          <t>t-955738647663431681</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C432" t="n">
         <v>1</v>
@@ -6056,72 +6056,72 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>t-1024937575906271233</t>
+          <t>t-955740876436844544</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>t-1048194085624995840</t>
+          <t>t-956201264915910656</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C434" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>t-1052528388341149696</t>
+          <t>t-957544710825967616</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C435" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>t-846728089912643588</t>
+          <t>t-965860574339923968</t>
         </is>
       </c>
       <c r="B436" t="n">
         <v>0</v>
       </c>
       <c r="C436" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>t-1056877276875374593</t>
+          <t>t-538674754086244353</t>
         </is>
       </c>
       <c r="B437" t="n">
         <v>1</v>
       </c>
       <c r="C437" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>t-557320938375905282</t>
+          <t>t-1049943076859461632</t>
         </is>
       </c>
       <c r="B438" t="n">
@@ -6134,7 +6134,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>t-652334979544948736</t>
+          <t>t-577791187240787968</t>
         </is>
       </c>
       <c r="B439" t="n">
@@ -6147,20 +6147,20 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>t-1057351782484115458</t>
+          <t>t-578574154607280128</t>
         </is>
       </c>
       <c r="B440" t="n">
         <v>0</v>
       </c>
       <c r="C440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>t-987343892633747456</t>
+          <t>t-629222720161640449</t>
         </is>
       </c>
       <c r="B441" t="n">
@@ -6173,7 +6173,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>t-1050114319227195392</t>
+          <t>t-694507587149111296</t>
         </is>
       </c>
       <c r="B442" t="n">
@@ -6186,7 +6186,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>t-697699936171909120</t>
+          <t>t-748093412272910336</t>
         </is>
       </c>
       <c r="B443" t="n">
@@ -6199,37 +6199,37 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>t-697706009293410304</t>
+          <t>t-770572723777105920</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C444" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>t-698055021934571520</t>
+          <t>t-913063437118341121</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C445" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>t-698056879210102784</t>
+          <t>t-974595772317659137</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C446" t="n">
         <v>1</v>
@@ -6238,50 +6238,50 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>t-698065167305805824</t>
+          <t>t-977899948724379649</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C447" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>t-698086763601006593</t>
+          <t>t-987423120817643520</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C448" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>t-698453860554244096</t>
+          <t>t-1001548678748954624</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>t-969482754407661568</t>
+          <t>t-1001557802375110657</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C450" t="n">
         <v>1</v>
@@ -6290,33 +6290,33 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>t-1000392026742034432</t>
+          <t>t-1038002421543391232</t>
         </is>
       </c>
       <c r="B451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>t-1000411846237675521</t>
+          <t>t-545381752093806593</t>
         </is>
       </c>
       <c r="B452" t="n">
         <v>1</v>
       </c>
       <c r="C452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>t-1000414273863069696</t>
+          <t>t-549859905231142914</t>
         </is>
       </c>
       <c r="B453" t="n">
@@ -6329,24 +6329,24 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>t-1000416714763505664</t>
+          <t>t-764828802384007168</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C454" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>t-720181387190530048</t>
+          <t>t-1056877276875374593</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C455" t="n">
         <v>1</v>
@@ -6355,11 +6355,11 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>t-837336632667877376</t>
+          <t>t-571286359673053184</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C456" t="n">
         <v>1</v>
@@ -6368,46 +6368,46 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>t-580822339648122880</t>
+          <t>t-571344417145135105</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C457" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>t-581167008596758528</t>
+          <t>t-669507403621277696</t>
         </is>
       </c>
       <c r="B458" t="n">
         <v>0</v>
       </c>
       <c r="C458" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>t-862635910306856964</t>
+          <t>t-669900887607898113</t>
         </is>
       </c>
       <c r="B459" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C459" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>t-862992827487309824</t>
+          <t>t-712150675111727105</t>
         </is>
       </c>
       <c r="B460" t="n">
@@ -6420,11 +6420,11 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>t-863003997464080384</t>
+          <t>t-917052938425716736</t>
         </is>
       </c>
       <c r="B461" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C461" t="n">
         <v>1</v>
@@ -6433,59 +6433,59 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>t-863121747360571392</t>
+          <t>t-917054284579078144</t>
         </is>
       </c>
       <c r="B462" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C462" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>t-988840187785568257</t>
+          <t>t-917061971631108097</t>
         </is>
       </c>
       <c r="B463" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C463" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>t-993886363249455104</t>
+          <t>t-917080429227778048</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C464" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>t-581115572282376192</t>
+          <t>t-917105709682216960</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C465" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>t-940281474259062789</t>
+          <t>t-801715561692626944</t>
         </is>
       </c>
       <c r="B466" t="n">
@@ -6498,33 +6498,33 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>t-962759977394991104</t>
+          <t>t-801720307002339328</t>
         </is>
       </c>
       <c r="B467" t="n">
         <v>1</v>
       </c>
       <c r="C467" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>t-892583343426072576</t>
+          <t>t-1034815239219539970</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C468" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>t-593397061376147456</t>
+          <t>t-575707186204180480</t>
         </is>
       </c>
       <c r="B469" t="n">
@@ -6537,33 +6537,33 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>t-717265029461049349</t>
+          <t>t-720181387190530048</t>
         </is>
       </c>
       <c r="B470" t="n">
         <v>0</v>
       </c>
       <c r="C470" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>t-956419595136585729</t>
+          <t>t-764514429736132609</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C471" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>t-594549643134009344</t>
+          <t>t-764618483195838464</t>
         </is>
       </c>
       <c r="B472" t="n">
@@ -6576,7 +6576,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>t-948800001890713600</t>
+          <t>t-988840187785568257</t>
         </is>
       </c>
       <c r="B473" t="n">
@@ -6589,7 +6589,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>t-776349771640496128</t>
+          <t>t-1027292918111825921</t>
         </is>
       </c>
       <c r="B474" t="n">
@@ -6602,24 +6602,24 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>t-613277694457856004</t>
+          <t>t-712917955391172609</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C475" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>t-1008938317684060160</t>
+          <t>t-817303376253882368</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C476" t="n">
         <v>1</v>
@@ -6628,7 +6628,7 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>t-1008975928465248256</t>
+          <t>t-942758921533624320</t>
         </is>
       </c>
       <c r="B477" t="n">
@@ -6641,24 +6641,24 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>t-1008978373484400640</t>
+          <t>t-956419595136585729</t>
         </is>
       </c>
       <c r="B478" t="n">
         <v>0</v>
       </c>
       <c r="C478" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>t-1008995195113918464</t>
+          <t>t-753246884345487361</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C479" t="n">
         <v>1</v>
@@ -6667,7 +6667,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>t-1009346793090506752</t>
+          <t>t-916986223478140928</t>
         </is>
       </c>
       <c r="B480" t="n">
@@ -6680,59 +6680,59 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>t-1009539540728639490</t>
+          <t>t-994824289349242881</t>
         </is>
       </c>
       <c r="B481" t="n">
         <v>1</v>
       </c>
       <c r="C481" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>t-1010058406223400966</t>
+          <t>t-994897053523341314</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C482" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>t-1011026406564823042</t>
+          <t>t-995019257841889281</t>
         </is>
       </c>
       <c r="B483" t="n">
         <v>0</v>
       </c>
       <c r="C483" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>t-760350969154723840</t>
+          <t>t-995256568429064192</t>
         </is>
       </c>
       <c r="B484" t="n">
         <v>1</v>
       </c>
       <c r="C484" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>t-884366275937521664</t>
+          <t>t-1008938317684060160</t>
         </is>
       </c>
       <c r="B485" t="n">
@@ -6745,37 +6745,37 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>t-631869539597336576</t>
+          <t>t-1008975928465248256</t>
         </is>
       </c>
       <c r="B486" t="n">
         <v>1</v>
       </c>
       <c r="C486" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>t-632875946828255232</t>
+          <t>t-1008978373484400640</t>
         </is>
       </c>
       <c r="B487" t="n">
         <v>0</v>
       </c>
       <c r="C487" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>t-849766480828878849</t>
+          <t>t-1008995195113918464</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C488" t="n">
         <v>1</v>
@@ -6784,59 +6784,59 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>t-652058053697765376</t>
+          <t>t-1009346793090506752</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C489" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>t-653076415596888064</t>
+          <t>t-1009539540728639490</t>
         </is>
       </c>
       <c r="B490" t="n">
         <v>1</v>
       </c>
       <c r="C490" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>t-880072530329038848</t>
+          <t>t-1010058406223400966</t>
         </is>
       </c>
       <c r="B491" t="n">
         <v>0</v>
       </c>
       <c r="C491" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>t-984045729260982272</t>
+          <t>t-1011026406564823042</t>
         </is>
       </c>
       <c r="B492" t="n">
         <v>0</v>
       </c>
       <c r="C492" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>t-656869699980955649</t>
+          <t>t-1021061872274018305</t>
         </is>
       </c>
       <c r="B493" t="n">
@@ -6849,24 +6849,24 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>t-657672314465726464</t>
+          <t>t-1017675550318612480</t>
         </is>
       </c>
       <c r="B494" t="n">
         <v>1</v>
       </c>
       <c r="C494" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>t-908615579501780992</t>
+          <t>t-1013800752567996416</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C495" t="n">
         <v>0</v>
@@ -6875,20 +6875,20 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>t-671784280259866624</t>
+          <t>t-636903909362167808</t>
         </is>
       </c>
       <c r="B496" t="n">
         <v>1</v>
       </c>
       <c r="C496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>t-703191098403872769</t>
+          <t>t-639695836943884288</t>
         </is>
       </c>
       <c r="B497" t="n">
@@ -6901,11 +6901,11 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>t-703191473269780480</t>
+          <t>t-643112220348534784</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C498" t="n">
         <v>0</v>
@@ -6914,24 +6914,24 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>t-703218090671214592</t>
+          <t>t-661463139213565952</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C499" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>t-703248568765779969</t>
+          <t>t-664402656019005440</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C500" t="n">
         <v>1</v>
@@ -6940,20 +6940,20 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>t-703357904250757120</t>
+          <t>t-808055620339384324</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C501" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>t-703380366254612480</t>
+          <t>t-692403922451992576</t>
         </is>
       </c>
       <c r="B502" t="n">
@@ -6966,7 +6966,7 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>t-703605156500381696</t>
+          <t>t-695507166833184769</t>
         </is>
       </c>
       <c r="B503" t="n">
@@ -6979,20 +6979,20 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>t-737207145662435328</t>
+          <t>t-708088836748910592</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C504" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>t-737378615814393856</t>
+          <t>t-781871738888065024</t>
         </is>
       </c>
       <c r="B505" t="n">
@@ -7005,24 +7005,24 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>t-737618316705964032</t>
+          <t>t-715965241637470208</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C506" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>t-737643792757587968</t>
+          <t>t-728492484175745024</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C507" t="n">
         <v>0</v>
@@ -7031,20 +7031,20 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>t-737668431374389250</t>
+          <t>t-956932857389309953</t>
         </is>
       </c>
       <c r="B508" t="n">
         <v>1</v>
       </c>
       <c r="C508" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>t-737882738997530625</t>
+          <t>t-957576777848717312</t>
         </is>
       </c>
       <c r="B509" t="n">
@@ -7057,7 +7057,7 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>t-738072611704430592</t>
+          <t>t-737563920496349185</t>
         </is>
       </c>
       <c r="B510" t="n">
@@ -7070,20 +7070,20 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>t-738383058857021440</t>
+          <t>t-1006483455209766912</t>
         </is>
       </c>
       <c r="B511" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C511" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>t-737669645872795648</t>
+          <t>t-1006781895278055424</t>
         </is>
       </c>
       <c r="B512" t="n">
@@ -7096,46 +7096,46 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>t-890865444307042304</t>
+          <t>t-1006804114234322945</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C513" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>t-737703959993913344</t>
+          <t>t-738019407536984064</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C514" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>t-737753796202385408</t>
+          <t>t-738062401308917760</t>
         </is>
       </c>
       <c r="B515" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C515" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>t-737755886211477504</t>
+          <t>t-738968020773703680</t>
         </is>
       </c>
       <c r="B516" t="n">
@@ -7148,7 +7148,7 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>t-737784335567364096</t>
+          <t>t-739102239302770689</t>
         </is>
       </c>
       <c r="B517" t="n">
@@ -7161,7 +7161,7 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>t-737884729626791936</t>
+          <t>t-739132972742418432</t>
         </is>
       </c>
       <c r="B518" t="n">
@@ -7174,20 +7174,20 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>t-737979350088323072</t>
+          <t>t-739365982360178688</t>
         </is>
       </c>
       <c r="B519" t="n">
         <v>1</v>
       </c>
       <c r="C519" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>t-737766517157330945</t>
+          <t>t-739454625393324032</t>
         </is>
       </c>
       <c r="B520" t="n">
@@ -7200,7 +7200,7 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>t-737944067741454336</t>
+          <t>t-957730126799802368</t>
         </is>
       </c>
       <c r="B521" t="n">
@@ -7213,33 +7213,33 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>t-1006483455209766912</t>
+          <t>t-1005463006455754752</t>
         </is>
       </c>
       <c r="B522" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C522" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>t-1006781895278055424</t>
+          <t>t-740249467828482048</t>
         </is>
       </c>
       <c r="B523" t="n">
         <v>1</v>
       </c>
       <c r="C523" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>t-1006804114234322945</t>
+          <t>t-740256345773985793</t>
         </is>
       </c>
       <c r="B524" t="n">
@@ -7252,46 +7252,46 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>t-738019407536984064</t>
+          <t>t-740517137236647936</t>
         </is>
       </c>
       <c r="B525" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C525" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>t-738062401308917760</t>
+          <t>t-740666936263118848</t>
         </is>
       </c>
       <c r="B526" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C526" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>t-738968020773703680</t>
+          <t>t-760154379307458560</t>
         </is>
       </c>
       <c r="B527" t="n">
         <v>1</v>
       </c>
       <c r="C527" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>t-739102239302770689</t>
+          <t>t-760176866099601408</t>
         </is>
       </c>
       <c r="B528" t="n">
@@ -7304,24 +7304,24 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>t-739132972742418432</t>
+          <t>t-792319235351535616</t>
         </is>
       </c>
       <c r="B529" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C529" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>t-739365982360178688</t>
+          <t>t-819911710349922305</t>
         </is>
       </c>
       <c r="B530" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C530" t="n">
         <v>0</v>
@@ -7330,11 +7330,11 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>t-739454625393324032</t>
+          <t>t-827575866729361408</t>
         </is>
       </c>
       <c r="B531" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C531" t="n">
         <v>0</v>
@@ -7343,7 +7343,7 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>t-811198180654272512</t>
+          <t>t-844564313012670464</t>
         </is>
       </c>
       <c r="B532" t="n">
@@ -7356,7 +7356,7 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>t-740042390703099904</t>
+          <t>t-851409413646802945</t>
         </is>
       </c>
       <c r="B533" t="n">
@@ -7369,11 +7369,11 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>t-740196910300962816</t>
+          <t>t-989189175357276160</t>
         </is>
       </c>
       <c r="B534" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C534" t="n">
         <v>1</v>
@@ -7382,11 +7382,11 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>t-824202245172592640</t>
+          <t>t-991723021709832193</t>
         </is>
       </c>
       <c r="B535" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C535" t="n">
         <v>0</v>
@@ -7395,72 +7395,72 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>t-748138953241464832</t>
+          <t>t-992831860215615489</t>
         </is>
       </c>
       <c r="B536" t="n">
         <v>1</v>
       </c>
       <c r="C536" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>t-767290506456039424</t>
+          <t>t-946052034461040640</t>
         </is>
       </c>
       <c r="B537" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C537" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>t-775906484295204864</t>
+          <t>t-883552231022366723</t>
         </is>
       </c>
       <c r="B538" t="n">
         <v>1</v>
       </c>
       <c r="C538" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>t-793504441022504960</t>
+          <t>t-887813365304705024</t>
         </is>
       </c>
       <c r="B539" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C539" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>t-803544744215384064</t>
+          <t>t-892499939137335296</t>
         </is>
       </c>
       <c r="B540" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C540" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>t-906552804285861889</t>
+          <t>t-1003312973887270917</t>
         </is>
       </c>
       <c r="B541" t="n">
@@ -7473,7 +7473,7 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>t-831171283400409088</t>
+          <t>t-1003367321245798400</t>
         </is>
       </c>
       <c r="B542" t="n">
@@ -7486,59 +7486,59 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>t-852631745438601216</t>
+          <t>t-1003369104735113216</t>
         </is>
       </c>
       <c r="B543" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C543" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>t-1019231079817973760</t>
+          <t>t-1003387066909167617</t>
         </is>
       </c>
       <c r="B544" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C544" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>t-1002130830792241153</t>
+          <t>t-1003393307597312000</t>
         </is>
       </c>
       <c r="B545" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C545" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>t-894025914476105728</t>
+          <t>t-1003471542783823872</t>
         </is>
       </c>
       <c r="B546" t="n">
         <v>1</v>
       </c>
       <c r="C546" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>t-906119454941171712</t>
+          <t>t-1003531171559628800</t>
         </is>
       </c>
       <c r="B547" t="n">
@@ -7551,33 +7551,33 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>t-913806353851969537</t>
+          <t>t-1003538396285947905</t>
         </is>
       </c>
       <c r="B548" t="n">
         <v>1</v>
       </c>
       <c r="C548" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>t-955559981331419136</t>
+          <t>t-1003544511115603973</t>
         </is>
       </c>
       <c r="B549" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C549" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>t-949248780280516608</t>
+          <t>t-1003657726029975553</t>
         </is>
       </c>
       <c r="B550" t="n">
@@ -7590,76 +7590,76 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>t-981841496902197248</t>
+          <t>t-1003966949058056192</t>
         </is>
       </c>
       <c r="B551" t="n">
         <v>1</v>
       </c>
       <c r="C551" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>t-988749833476325376</t>
+          <t>t-949166298210082816</t>
         </is>
       </c>
       <c r="B552" t="n">
         <v>0</v>
       </c>
       <c r="C552" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>t-1004723222363955200</t>
+          <t>t-955559981331419136</t>
         </is>
       </c>
       <c r="B553" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C553" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>t-1006233702052057088</t>
+          <t>t-955806828146827266</t>
         </is>
       </c>
       <c r="B554" t="n">
         <v>1</v>
       </c>
       <c r="C554" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>t-590545916886659072</t>
+          <t>t-988749833476325376</t>
         </is>
       </c>
       <c r="B555" t="n">
         <v>0</v>
       </c>
       <c r="C555" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>t-666296658595069952</t>
+          <t>t-1006233702052057088</t>
         </is>
       </c>
       <c r="B556" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C556" t="n">
         <v>0</v>
@@ -7668,20 +7668,20 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>t-666325159947563008</t>
+          <t>t-495525926722367488</t>
         </is>
       </c>
       <c r="B557" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C557" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>t-891629267066290176</t>
+          <t>t-931841011340296192</t>
         </is>
       </c>
       <c r="B558" t="n">
@@ -7694,7 +7694,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>t-898971629665099776</t>
+          <t>t-500549350234554368</t>
         </is>
       </c>
       <c r="B559" t="n">
@@ -7707,11 +7707,11 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>t-532541340023017473</t>
+          <t>t-510001639617351681</t>
         </is>
       </c>
       <c r="B560" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C560" t="n">
         <v>1</v>
@@ -7720,33 +7720,33 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>t-566257094865981440</t>
+          <t>t-529938272265703424</t>
         </is>
       </c>
       <c r="B561" t="n">
         <v>0</v>
       </c>
       <c r="C561" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>t-620843348505432064</t>
+          <t>t-537546537975685120</t>
         </is>
       </c>
       <c r="B562" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C562" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>t-645961089671405568</t>
+          <t>t-537578272348205056</t>
         </is>
       </c>
       <c r="B563" t="n">
@@ -7759,7 +7759,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>t-666134929525178369</t>
+          <t>t-537578565139582976</t>
         </is>
       </c>
       <c r="B564" t="n">
@@ -7772,7 +7772,7 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>t-666141677652848640</t>
+          <t>t-537896255347646465</t>
         </is>
       </c>
       <c r="B565" t="n">
@@ -7785,11 +7785,11 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>t-666146479564681217</t>
+          <t>t-549142719973445632</t>
         </is>
       </c>
       <c r="B566" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C566" t="n">
         <v>1</v>
@@ -7798,7 +7798,7 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>t-666155143696506880</t>
+          <t>t-549750044099088384</t>
         </is>
       </c>
       <c r="B567" t="n">
@@ -7811,11 +7811,11 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>t-666158894691954689</t>
+          <t>t-549858427787153410</t>
         </is>
       </c>
       <c r="B568" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C568" t="n">
         <v>0</v>
@@ -7824,11 +7824,11 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>t-666536410439028736</t>
+          <t>t-549861279825817601</t>
         </is>
       </c>
       <c r="B569" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C569" t="n">
         <v>0</v>
@@ -7837,11 +7837,11 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>t-666602420022194177</t>
+          <t>t-643644357350948864</t>
         </is>
       </c>
       <c r="B570" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C570" t="n">
         <v>0</v>
@@ -7850,11 +7850,11 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>t-666664955077242881</t>
+          <t>t-648493309824925696</t>
         </is>
       </c>
       <c r="B571" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C571" t="n">
         <v>1</v>
@@ -7863,11 +7863,11 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>t-667221889505296388</t>
+          <t>t-664426560234110976</t>
         </is>
       </c>
       <c r="B572" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C572" t="n">
         <v>1</v>
@@ -7876,7 +7876,7 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>t-667625624421445632</t>
+          <t>t-719019371499130881</t>
         </is>
       </c>
       <c r="B573" t="n">
@@ -7889,7 +7889,7 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>t-667976594137350144</t>
+          <t>t-785398387059269632</t>
         </is>
       </c>
       <c r="B574" t="n">
@@ -7902,7 +7902,7 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>t-668796235004932096</t>
+          <t>t-814010823689408512</t>
         </is>
       </c>
       <c r="B575" t="n">
@@ -7915,46 +7915,46 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>t-669882207800942593</t>
+          <t>t-912643743894949888</t>
         </is>
       </c>
       <c r="B576" t="n">
         <v>1</v>
       </c>
       <c r="C576" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>t-711861360414433281</t>
+          <t>t-918517038053814277</t>
         </is>
       </c>
       <c r="B577" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C577" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>t-711871478451417088</t>
+          <t>t-935721877053505536</t>
         </is>
       </c>
       <c r="B578" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C578" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>t-711899328244113408</t>
+          <t>t-950179252325859328</t>
         </is>
       </c>
       <c r="B579" t="n">
@@ -7967,7 +7967,7 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>t-712616490994892801</t>
+          <t>t-950592034162774021</t>
         </is>
       </c>
       <c r="B580" t="n">
@@ -7980,20 +7980,20 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>t-719019371499130881</t>
+          <t>t-950680110948007937</t>
         </is>
       </c>
       <c r="B581" t="n">
         <v>0</v>
       </c>
       <c r="C581" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>t-730666173340209152</t>
+          <t>t-951371471217090560</t>
         </is>
       </c>
       <c r="B582" t="n">
@@ -8006,20 +8006,20 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>t-788186519307563010</t>
+          <t>t-952033538005716993</t>
         </is>
       </c>
       <c r="B583" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C583" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>t-798050241861840896</t>
+          <t>t-952059671258447872</t>
         </is>
       </c>
       <c r="B584" t="n">
@@ -8032,7 +8032,7 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>t-798099061475684352</t>
+          <t>t-952061652182028289</t>
         </is>
       </c>
       <c r="B585" t="n">
@@ -8045,20 +8045,20 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>t-828910647861616640</t>
+          <t>t-952118349386850304</t>
         </is>
       </c>
       <c r="B586" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C586" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>t-829261659726295045</t>
+          <t>t-953168990901284865</t>
         </is>
       </c>
       <c r="B587" t="n">
@@ -8071,33 +8071,33 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>t-879622376966635521</t>
+          <t>t-970475324591915008</t>
         </is>
       </c>
       <c r="B588" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C588" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>t-879625739317854209</t>
+          <t>t-1031392016255647744</t>
         </is>
       </c>
       <c r="B589" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C589" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>t-879987948296568834</t>
+          <t>t-650617914194694144</t>
         </is>
       </c>
       <c r="B590" t="n">
@@ -8110,7 +8110,7 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>t-927545172220694528</t>
+          <t>t-675258412049956865</t>
         </is>
       </c>
       <c r="B591" t="n">
@@ -8123,11 +8123,11 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>t-927729703523270657</t>
+          <t>t-697693466298552321</t>
         </is>
       </c>
       <c r="B592" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C592" t="n">
         <v>0</v>
@@ -8136,11 +8136,11 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>t-927758071429939200</t>
+          <t>t-697911341554610176</t>
         </is>
       </c>
       <c r="B593" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C593" t="n">
         <v>0</v>
@@ -8149,7 +8149,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>t-927766985911312384</t>
+          <t>t-706517570451427328</t>
         </is>
       </c>
       <c r="B594" t="n">
@@ -8162,50 +8162,50 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>t-928074662826745856</t>
+          <t>t-718742884065759233</t>
         </is>
       </c>
       <c r="B595" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C595" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>t-928076971581378560</t>
+          <t>t-727016962102980608</t>
         </is>
       </c>
       <c r="B596" t="n">
         <v>1</v>
       </c>
       <c r="C596" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>t-928123673919348741</t>
+          <t>t-727141031607595008</t>
         </is>
       </c>
       <c r="B597" t="n">
         <v>1</v>
       </c>
       <c r="C597" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>t-928519035205095424</t>
+          <t>t-777605888655761409</t>
         </is>
       </c>
       <c r="B598" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C598" t="n">
         <v>1</v>
@@ -8214,7 +8214,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>t-928568681545728000</t>
+          <t>t-778041943855026178</t>
         </is>
       </c>
       <c r="B599" t="n">
@@ -8227,7 +8227,7 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>t-928619706227023872</t>
+          <t>t-778431677144018944</t>
         </is>
       </c>
       <c r="B600" t="n">
@@ -8240,24 +8240,24 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>t-928900021390577664</t>
+          <t>t-827493643661381632</t>
         </is>
       </c>
       <c r="B601" t="n">
         <v>1</v>
       </c>
       <c r="C601" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>t-928909590627942400</t>
+          <t>t-832449416082579456</t>
         </is>
       </c>
       <c r="B602" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C602" t="n">
         <v>0</v>
@@ -8266,7 +8266,7 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>t-928993443942105088</t>
+          <t>t-838217823608438784</t>
         </is>
       </c>
       <c r="B603" t="n">
@@ -8279,7 +8279,7 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>t-978263707544305664</t>
+          <t>t-869476060991152129</t>
         </is>
       </c>
       <c r="B604" t="n">
@@ -8292,37 +8292,37 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>t-650617914194694144</t>
+          <t>t-922122902136172545</t>
         </is>
       </c>
       <c r="B605" t="n">
         <v>0</v>
       </c>
       <c r="C605" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>t-675258412049956865</t>
+          <t>t-965395788435046400</t>
         </is>
       </c>
       <c r="B606" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C606" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>t-727016962102980608</t>
+          <t>t-985916719981060097</t>
         </is>
       </c>
       <c r="B607" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C607" t="n">
         <v>1</v>
@@ -8331,11 +8331,11 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>t-727141031607595008</t>
+          <t>t-985984041508720641</t>
         </is>
       </c>
       <c r="B608" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C608" t="n">
         <v>1</v>
@@ -8344,20 +8344,20 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>t-777605888655761409</t>
+          <t>t-659219094017708032</t>
         </is>
       </c>
       <c r="B609" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C609" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>t-778041943855026178</t>
+          <t>t-662632429539057666</t>
         </is>
       </c>
       <c r="B610" t="n">
@@ -8370,7 +8370,7 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>t-778431677144018944</t>
+          <t>t-662681193154920448</t>
         </is>
       </c>
       <c r="B611" t="n">
@@ -8383,46 +8383,46 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>t-820295860747542529</t>
+          <t>t-663567974029131776</t>
         </is>
       </c>
       <c r="B612" t="n">
         <v>0</v>
       </c>
       <c r="C612" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>t-820993538456289280</t>
+          <t>t-727080149770866688</t>
         </is>
       </c>
       <c r="B613" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C613" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>t-838217823608438784</t>
+          <t>t-792955986956824576</t>
         </is>
       </c>
       <c r="B614" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C614" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>t-948796201708675072</t>
+          <t>t-793029205319491584</t>
         </is>
       </c>
       <c r="B615" t="n">
@@ -8435,7 +8435,7 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>t-948886764244033537</t>
+          <t>t-793055195232018432</t>
         </is>
       </c>
       <c r="B616" t="n">
@@ -8448,20 +8448,20 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>t-574404715376603136</t>
+          <t>t-870517868831449088</t>
         </is>
       </c>
       <c r="B617" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C617" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>t-580217985706528769</t>
+          <t>t-918078962173075457</t>
         </is>
       </c>
       <c r="B618" t="n">
@@ -8474,11 +8474,11 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>t-666604346558271489</t>
+          <t>t-918257100547014658</t>
         </is>
       </c>
       <c r="B619" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C619" t="n">
         <v>1</v>
@@ -8487,7 +8487,7 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>t-667233953934282752</t>
+          <t>t-931079635575586816</t>
         </is>
       </c>
       <c r="B620" t="n">
@@ -8500,7 +8500,7 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>t-669092226840981504</t>
+          <t>t-931432910795653120</t>
         </is>
       </c>
       <c r="B621" t="n">
@@ -8513,20 +8513,20 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>t-708275780988473345</t>
+          <t>t-932133115748696064</t>
         </is>
       </c>
       <c r="B622" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C622" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>t-709001129091174403</t>
+          <t>t-932454853443334144</t>
         </is>
       </c>
       <c r="B623" t="n">
@@ -8539,7 +8539,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>t-709281433978687488</t>
+          <t>t-976030387188137984</t>
         </is>
       </c>
       <c r="B624" t="n">
@@ -8552,7 +8552,7 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>t-732021013433724928</t>
+          <t>t-976030855033319425</t>
         </is>
       </c>
       <c r="B625" t="n">
@@ -8565,24 +8565,24 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>t-732494989838540800</t>
+          <t>t-976037405776990208</t>
         </is>
       </c>
       <c r="B626" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C626" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>t-732496065941798912</t>
+          <t>t-1036192189947281408</t>
         </is>
       </c>
       <c r="B627" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C627" t="n">
         <v>1</v>
@@ -8591,7 +8591,7 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>t-749065341586726912</t>
+          <t>t-548367743385624577</t>
         </is>
       </c>
       <c r="B628" t="n">
@@ -8604,7 +8604,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>t-769774311968079872</t>
+          <t>t-563978477183840256</t>
         </is>
       </c>
       <c r="B629" t="n">
@@ -8617,20 +8617,20 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>t-784943243364487168</t>
+          <t>t-723687727468683264</t>
         </is>
       </c>
       <c r="B630" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C630" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>t-785071804276576256</t>
+          <t>t-723764446498152448</t>
         </is>
       </c>
       <c r="B631" t="n">
@@ -8643,7 +8643,7 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>t-786121283209564160</t>
+          <t>t-831995329318772736</t>
         </is>
       </c>
       <c r="B632" t="n">
@@ -8656,7 +8656,7 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>t-787201722892455936</t>
+          <t>t-839656521227091969</t>
         </is>
       </c>
       <c r="B633" t="n">
@@ -8669,33 +8669,33 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>t-787228854490243072</t>
+          <t>t-535750936824528896</t>
         </is>
       </c>
       <c r="B634" t="n">
         <v>1</v>
       </c>
       <c r="C634" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>t-792955986956824576</t>
+          <t>t-535750956848140288</t>
         </is>
       </c>
       <c r="B635" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C635" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>t-793029205319491584</t>
+          <t>t-535751324143341568</t>
         </is>
       </c>
       <c r="B636" t="n">
@@ -8708,7 +8708,7 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>t-793055195232018432</t>
+          <t>t-535754365856776193</t>
         </is>
       </c>
       <c r="B637" t="n">
@@ -8721,7 +8721,7 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>t-863988808966053888</t>
+          <t>t-535786478451048448</t>
         </is>
       </c>
       <c r="B638" t="n">
@@ -8734,7 +8734,7 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>t-918078962173075457</t>
+          <t>t-712147646559879168</t>
         </is>
       </c>
       <c r="B639" t="n">
@@ -8747,7 +8747,7 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>t-918257100547014658</t>
+          <t>t-936830929384828928</t>
         </is>
       </c>
       <c r="B640" t="n">
@@ -8760,33 +8760,33 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>t-922601399271112704</t>
+          <t>t-936988511051292672</t>
         </is>
       </c>
       <c r="B641" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C641" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>t-965199790966415360</t>
+          <t>t-1028122158990381056</t>
         </is>
       </c>
       <c r="B642" t="n">
         <v>0</v>
       </c>
       <c r="C642" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>t-987647411144220672</t>
+          <t>t-521700184376770560</t>
         </is>
       </c>
       <c r="B643" t="n">
@@ -8799,7 +8799,7 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>t-548367743385624577</t>
+          <t>t-971295308981383168</t>
         </is>
       </c>
       <c r="B644" t="n">
@@ -8812,20 +8812,20 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>t-563978477183840256</t>
+          <t>t-565428032685740033</t>
         </is>
       </c>
       <c r="B645" t="n">
         <v>1</v>
       </c>
       <c r="C645" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>t-831995329318772736</t>
+          <t>t-777029515289563136</t>
         </is>
       </c>
       <c r="B646" t="n">
@@ -8838,20 +8838,20 @@
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>t-930049646444945408</t>
+          <t>t-777052253362335745</t>
         </is>
       </c>
       <c r="B647" t="n">
         <v>1</v>
       </c>
       <c r="C647" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>t-930646694097645568</t>
+          <t>t-799444908029284352</t>
         </is>
       </c>
       <c r="B648" t="n">
@@ -8864,59 +8864,59 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>t-934049646694998016</t>
+          <t>t-799480577057583104</t>
         </is>
       </c>
       <c r="B649" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C649" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>t-518708677113438208</t>
+          <t>t-801391859083988993</t>
         </is>
       </c>
       <c r="B650" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C650" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>t-661588229892673536</t>
+          <t>t-532101195737735168</t>
         </is>
       </c>
       <c r="B651" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C651" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>t-664725934935707650</t>
+          <t>t-532807839664730113</t>
         </is>
       </c>
       <c r="B652" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C652" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>t-788398448508739585</t>
+          <t>t-694769781573050368</t>
         </is>
       </c>
       <c r="B653" t="n">
@@ -8929,7 +8929,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>t-788457694453637120</t>
+          <t>t-922457591313137664</t>
         </is>
       </c>
       <c r="B654" t="n">
@@ -8942,37 +8942,37 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>t-853130130432176128</t>
+          <t>t-922793297873010689</t>
         </is>
       </c>
       <c r="B655" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C655" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>t-929369497420685312</t>
+          <t>t-544711019629907968</t>
         </is>
       </c>
       <c r="B656" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C656" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>t-1032843605826621440</t>
+          <t>t-544769671799394304</t>
         </is>
       </c>
       <c r="B657" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C657" t="n">
         <v>1</v>
@@ -8981,20 +8981,20 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>t-525880451999617025</t>
+          <t>t-544813894037147648</t>
         </is>
       </c>
       <c r="B658" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C658" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>t-555323393890058240</t>
+          <t>t-545169541052243968</t>
         </is>
       </c>
       <c r="B659" t="n">
@@ -9007,7 +9007,7 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>t-555327376440053760</t>
+          <t>t-547033780322455552</t>
         </is>
       </c>
       <c r="B660" t="n">
@@ -9020,7 +9020,7 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>t-799444908029284352</t>
+          <t>t-547601049230782464</t>
         </is>
       </c>
       <c r="B661" t="n">
@@ -9033,11 +9033,11 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>t-799480577057583104</t>
+          <t>t-548131100095442945</t>
         </is>
       </c>
       <c r="B662" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C662" t="n">
         <v>1</v>
@@ -9046,11 +9046,11 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>t-829520315575177217</t>
+          <t>t-557096941750743040</t>
         </is>
       </c>
       <c r="B663" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C663" t="n">
         <v>1</v>
@@ -9059,11 +9059,11 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>t-836878014587744257</t>
+          <t>t-681630649879543808</t>
         </is>
       </c>
       <c r="B664" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C664" t="n">
         <v>1</v>
@@ -9072,7 +9072,7 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>t-969977636670918656</t>
+          <t>t-803451448700780544</t>
         </is>
       </c>
       <c r="B665" t="n">
@@ -9085,7 +9085,7 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>t-564676313139531776</t>
+          <t>t-803454039333556224</t>
         </is>
       </c>
       <c r="B666" t="n">
@@ -9098,7 +9098,7 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>t-564736068306878464</t>
+          <t>t-803455995494027264</t>
         </is>
       </c>
       <c r="B667" t="n">
@@ -9111,33 +9111,33 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>t-673010347008110593</t>
+          <t>t-803466221962215424</t>
         </is>
       </c>
       <c r="B668" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C668" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>t-699788036561743872</t>
+          <t>t-803470959600467968</t>
         </is>
       </c>
       <c r="B669" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C669" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>t-757365069608923136</t>
+          <t>t-815040393884467200</t>
         </is>
       </c>
       <c r="B670" t="n">
@@ -9150,11 +9150,11 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>t-961453081543065600</t>
+          <t>t-816403303852425216</t>
         </is>
       </c>
       <c r="B671" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C671" t="n">
         <v>1</v>
@@ -9163,7 +9163,7 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>t-544711019629907968</t>
+          <t>t-822808230711721984</t>
         </is>
       </c>
       <c r="B672" t="n">
@@ -9176,11 +9176,11 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>t-544769671799394304</t>
+          <t>t-536910791295778816</t>
         </is>
       </c>
       <c r="B673" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C673" t="n">
         <v>1</v>
@@ -9189,7 +9189,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>t-544813894037147648</t>
+          <t>t-670770027604213760</t>
         </is>
       </c>
       <c r="B674" t="n">
@@ -9202,7 +9202,7 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>t-545169541052243968</t>
+          <t>t-723151439586013184</t>
         </is>
       </c>
       <c r="B675" t="n">
@@ -9215,46 +9215,46 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>t-668452855993511936</t>
+          <t>t-753418052503502848</t>
         </is>
       </c>
       <c r="B676" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C676" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>t-734168300121395200</t>
+          <t>t-785106169677230080</t>
         </is>
       </c>
       <c r="B677" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C677" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>t-798752071239409665</t>
+          <t>t-785108107227561984</t>
         </is>
       </c>
       <c r="B678" t="n">
         <v>1</v>
       </c>
       <c r="C678" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>t-536910791295778816</t>
+          <t>t-785110315553787904</t>
         </is>
       </c>
       <c r="B679" t="n">
@@ -9267,11 +9267,11 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>t-695999176518184960</t>
+          <t>t-785111654228856832</t>
         </is>
       </c>
       <c r="B680" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C680" t="n">
         <v>1</v>
@@ -9280,7 +9280,7 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>t-723151439586013184</t>
+          <t>t-785153740848308225</t>
         </is>
       </c>
       <c r="B681" t="n">
@@ -9293,20 +9293,20 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>t-753418052503502848</t>
+          <t>t-785284230573993984</t>
         </is>
       </c>
       <c r="B682" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C682" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>t-764336375894306816</t>
+          <t>t-785337680368467968</t>
         </is>
       </c>
       <c r="B683" t="n">
@@ -9319,24 +9319,24 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>t-764417813717086208</t>
+          <t>t-785343194607202304</t>
         </is>
       </c>
       <c r="B684" t="n">
         <v>1</v>
       </c>
       <c r="C684" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>t-776553403992252416</t>
+          <t>t-785389967123984386</t>
         </is>
       </c>
       <c r="B685" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C685" t="n">
         <v>1</v>
@@ -9345,7 +9345,7 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>t-776953291594866688</t>
+          <t>t-786190856218746880</t>
         </is>
       </c>
       <c r="B686" t="n">
@@ -9358,24 +9358,24 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>t-776996787567464448</t>
+          <t>t-786491706409492481</t>
         </is>
       </c>
       <c r="B687" t="n">
         <v>1</v>
       </c>
       <c r="C687" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>t-777018247778631680</t>
+          <t>t-787902147698450432</t>
         </is>
       </c>
       <c r="B688" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C688" t="n">
         <v>1</v>
@@ -9384,11 +9384,11 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>t-777139839556648960</t>
+          <t>t-787981561949921280</t>
         </is>
       </c>
       <c r="B689" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C689" t="n">
         <v>1</v>
@@ -9397,7 +9397,7 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>t-777163982893223936</t>
+          <t>t-820620984231174145</t>
         </is>
       </c>
       <c r="B690" t="n">
@@ -9410,7 +9410,7 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>t-919895715089932288</t>
+          <t>t-965551093982769152</t>
         </is>
       </c>
       <c r="B691" t="n">
@@ -9423,50 +9423,50 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>t-965551093982769152</t>
+          <t>t-941530453147836416</t>
         </is>
       </c>
       <c r="B692" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C692" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>t-544020486527528960</t>
+          <t>t-950631505486737408</t>
         </is>
       </c>
       <c r="B693" t="n">
         <v>0</v>
       </c>
       <c r="C693" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>t-930542567199997958</t>
+          <t>t-950698684148142080</t>
         </is>
       </c>
       <c r="B694" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C694" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>t-547937617547771905</t>
+          <t>t-1037871134488707072</t>
         </is>
       </c>
       <c r="B695" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C695" t="n">
         <v>1</v>
@@ -9475,7 +9475,7 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>t-599804476774436864</t>
+          <t>t-1037879643695529985</t>
         </is>
       </c>
       <c r="B696" t="n">
@@ -9488,7 +9488,7 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>t-1027038929319411712</t>
+          <t>t-1037893136482103296</t>
         </is>
       </c>
       <c r="B697" t="n">
@@ -9501,7 +9501,7 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>t-1027057881365901312</t>
+          <t>t-1037997508973060096</t>
         </is>
       </c>
       <c r="B698" t="n">
@@ -9514,7 +9514,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>t-1027179632922046467</t>
+          <t>t-703883305427427329</t>
         </is>
       </c>
       <c r="B699" t="n">
@@ -9527,7 +9527,7 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>t-1037871134488707072</t>
+          <t>t-704164134657486848</t>
         </is>
       </c>
       <c r="B700" t="n">
@@ -9540,7 +9540,7 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>t-1037879643695529985</t>
+          <t>t-832028212376985600</t>
         </is>
       </c>
       <c r="B701" t="n">
@@ -9553,7 +9553,7 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>t-1037893136482103296</t>
+          <t>t-832064333504933888</t>
         </is>
       </c>
       <c r="B702" t="n">
@@ -9566,24 +9566,24 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>t-1037997508973060096</t>
+          <t>t-936534965277294597</t>
         </is>
       </c>
       <c r="B703" t="n">
         <v>1</v>
       </c>
       <c r="C703" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>t-941661763132579840</t>
+          <t>t-936606274795462656</t>
         </is>
       </c>
       <c r="B704" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C704" t="n">
         <v>0</v>
@@ -9592,33 +9592,33 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>t-579496758595584000</t>
+          <t>t-1016952321333497856</t>
         </is>
       </c>
       <c r="B705" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C705" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>t-946271534502395905</t>
+          <t>t-638407777333850112</t>
         </is>
       </c>
       <c r="B706" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C706" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>t-962542177514500096</t>
+          <t>t-741496457824374784</t>
         </is>
       </c>
       <c r="B707" t="n">
@@ -9631,33 +9631,33 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>t-620194547256029184</t>
+          <t>t-761430337377349632</t>
         </is>
       </c>
       <c r="B708" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C708" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>t-936534965277294597</t>
+          <t>t-932461262268661760</t>
         </is>
       </c>
       <c r="B709" t="n">
         <v>1</v>
       </c>
       <c r="C709" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>t-936606274795462656</t>
+          <t>t-932590015711993858</t>
         </is>
       </c>
       <c r="B710" t="n">
@@ -9670,11 +9670,11 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>t-701328466483027968</t>
+          <t>t-932596112241786880</t>
         </is>
       </c>
       <c r="B711" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C711" t="n">
         <v>1</v>
@@ -9683,46 +9683,46 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>t-741496457824374784</t>
+          <t>t-932690981908074496</t>
         </is>
       </c>
       <c r="B712" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C712" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>t-795497536291094528</t>
+          <t>t-932881287005835264</t>
         </is>
       </c>
       <c r="B713" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C713" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>t-805321168580395008</t>
+          <t>t-979975965760720898</t>
         </is>
       </c>
       <c r="B714" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C714" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>t-718718501679017984</t>
+          <t>t-584288298249531392</t>
         </is>
       </c>
       <c r="B715" t="n">
@@ -9735,7 +9735,7 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>t-753509017096364033</t>
+          <t>t-677428252881784832</t>
         </is>
       </c>
       <c r="B716" t="n">
@@ -9748,7 +9748,7 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>t-845628167855357953</t>
+          <t>t-777104599379423233</t>
         </is>
       </c>
       <c r="B717" t="n">
@@ -9761,7 +9761,7 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>t-568062001399746560</t>
+          <t>t-777106884058763264</t>
         </is>
       </c>
       <c r="B718" t="n">
@@ -9774,7 +9774,7 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>t-883957999576002561</t>
+          <t>t-819830340390830081</t>
         </is>
       </c>
       <c r="B719" t="n">
@@ -9787,7 +9787,7 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>t-1016913242839367680</t>
+          <t>t-843318937064366080</t>
         </is>
       </c>
       <c r="B720" t="n">
@@ -9800,20 +9800,20 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>t-877794875583934464</t>
+          <t>t-845628167855357953</t>
         </is>
       </c>
       <c r="B721" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C721" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>t-812509278762242048</t>
+          <t>t-675601382867537920</t>
         </is>
       </c>
       <c r="B722" t="n">
@@ -9826,7 +9826,7 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>t-820218394255339521</t>
+          <t>t-676436379425894400</t>
         </is>
       </c>
       <c r="B723" t="n">
@@ -9839,7 +9839,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>t-785264263749308416</t>
+          <t>t-837085298324619265</t>
         </is>
       </c>
       <c r="B724" t="n">
@@ -9852,7 +9852,7 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>t-785310124797669377</t>
+          <t>t-697592269315010562</t>
         </is>
       </c>
       <c r="B725" t="n">
@@ -9865,7 +9865,7 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>t-785316828025421824</t>
+          <t>t-697721034691096580</t>
         </is>
       </c>
       <c r="B726" t="n">
@@ -9878,7 +9878,7 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>t-785325402981924866</t>
+          <t>t-829258775257346048</t>
         </is>
       </c>
       <c r="B727" t="n">
@@ -9891,7 +9891,7 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>t-785347096031268864</t>
+          <t>t-829280839464845312</t>
         </is>
       </c>
       <c r="B728" t="n">
@@ -9904,20 +9904,20 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>t-786434119072821249</t>
+          <t>t-829291437292396544</t>
         </is>
       </c>
       <c r="B729" t="n">
         <v>1</v>
       </c>
       <c r="C729" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>t-780951872647475200</t>
+          <t>t-829294998201970688</t>
         </is>
       </c>
       <c r="B730" t="n">
@@ -9930,7 +9930,7 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>t-797677972547219456</t>
+          <t>t-829512724761620480</t>
         </is>
       </c>
       <c r="B731" t="n">
@@ -9943,7 +9943,7 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>t-816256005461987328</t>
+          <t>t-964014223184375808</t>
         </is>
       </c>
       <c r="B732" t="n">
@@ -9956,13 +9956,26 @@
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>t-928096679089209344</t>
+          <t>t-833862725059031044</t>
         </is>
       </c>
       <c r="B733" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C733" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>t-833912149630078976</t>
+        </is>
+      </c>
+      <c r="B734" t="n">
+        <v>1</v>
+      </c>
+      <c r="C734" t="n">
         <v>1</v>
       </c>
     </row>
